--- a/lol2.xlsx
+++ b/lol2.xlsx
@@ -462,9 +462,9 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>30230,76</t>
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>30700,2</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>

--- a/lol2.xlsx
+++ b/lol2.xlsx
@@ -505,17 +505,17 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>xrp</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>skey-network</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -545,9 +545,21 @@
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr"/>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="n"/>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
       <c r="E2" s="3" t="n"/>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
@@ -556,12 +568,24 @@
     <row r="3" ht="15" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="n"/>
+          <t>a2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>a5</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>a121</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>a4</t>
+        </is>
+      </c>
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>

--- a/lol2.xlsx
+++ b/lol2.xlsx
@@ -453,18 +453,67 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A121"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>30700,2</t>
+          <t>30308,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>1930,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>93,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>0,334842</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="2">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>0,071215883263</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="2">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>0,748571</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="2">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="12.8" customHeight="1" s="2">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>0,014317421988</t>
         </is>
       </c>
     </row>
@@ -489,13 +538,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="F8:F9 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -505,32 +554,32 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>litecoin</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>mover</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>dogecoin</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
           <t>xrp</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>skey-network</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>ethereum</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>chia</t>
         </is>
       </c>
       <c r="H1" s="3" t="inlineStr">
@@ -560,35 +609,59 @@
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
           <t>a2</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>a3</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>a4</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>a5</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>a121</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>a4</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>a6</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>a7</t>
+        </is>
+      </c>
       <c r="H3" s="3" t="n"/>
     </row>
   </sheetData>
